--- a/Common/Style/Resource/Template/Import_Interessent.xlsx
+++ b/Common/Style/Resource/Template/Import_Interessent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\abteilung_software\Projekte\Schulsoftware\30 Projektrealisierung\30.2 Einstieg und Schulung\!Datenimport\Datenimport feste Spalten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kundwzwickau.de\kuw\abteilung_software\Projekte\Schulsoftware\30 Projektrealisierung\30.2 Einstieg und Schulung\!Datenimport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DFD08-BB20-4EB3-AD22-BE8156016D91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D38F22-A3B0-4A79-8DFD-EAB040BACB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kl. 1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="410">
   <si>
     <t>Nr</t>
   </si>
@@ -1488,6 +1488,9 @@
   </si>
   <si>
     <t>08056</t>
+  </si>
+  <si>
+    <t>01.01.2020</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1695,72 +1698,42 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -5501,691 +5474,520 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="6" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="11.5703125" style="31"/>
-    <col min="33" max="33" width="20.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" style="32"/>
-    <col min="35" max="43" width="11.5703125" style="31"/>
-    <col min="44" max="44" width="20.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.5703125" style="32"/>
-    <col min="46" max="16384" width="11.5703125" style="31"/>
+    <col min="1" max="1" width="3.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="29" customWidth="1"/>
+    <col min="11" max="11" width="6" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="11.5703125" style="29"/>
+    <col min="33" max="33" width="20.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="34" max="43" width="11.5703125" style="29"/>
+    <col min="44" max="44" width="20.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="11.5703125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:50" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35"/>
+      <c r="B1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="35">
+      <c r="G1" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="O1" s="30">
+        <v>7</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="S1" s="31">
         <v>43831</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="K1" s="36" t="s">
+      <c r="T1" s="31">
+        <v>43831</v>
+      </c>
+      <c r="U1" s="31">
+        <v>43831</v>
+      </c>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA1" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD1" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE1" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="AG1" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="AH1" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="AI1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="AK1" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="O1" s="34">
+      <c r="AL1" s="30">
         <v>7</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="AM1" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="Q1" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="S1" s="39">
-        <v>43831</v>
-      </c>
-      <c r="T1" s="39">
-        <v>43831</v>
-      </c>
-      <c r="U1" s="39">
-        <v>43831</v>
-      </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y1" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA1" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB1" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AN1" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="AO1" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="AE1" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AP1" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ1" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AR1" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="AH1" s="36" t="s">
+      <c r="AS1" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AT1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AU1" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AV1" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="AL1" s="34">
+      <c r="AW1" s="30">
         <v>7</v>
       </c>
-      <c r="AM1" s="34" t="s">
+      <c r="AX1" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="AN1" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="AO1" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="AP1" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="AQ1" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="AR1" s="37" t="s">
-        <v>403</v>
-      </c>
-      <c r="AS1" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="AT1" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="AU1" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="AV1" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="AW1" s="34">
+    </row>
+    <row r="2" spans="1:50" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AX1" s="34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>406</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AC2" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AD2" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AE2" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AF2" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AG2" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AI2" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AK2" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="AL2" s="43" t="s">
+      <c r="AL2" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="AM2" s="43" t="s">
+      <c r="AM2" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="AN2" s="46" t="s">
+      <c r="AN2" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="AO2" s="46" t="s">
+      <c r="AO2" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="AP2" s="46" t="s">
+      <c r="AP2" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="AQ2" s="46" t="s">
+      <c r="AQ2" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="AR2" s="47" t="s">
+      <c r="AR2" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="AS2" s="48" t="s">
+      <c r="AS2" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="AT2" s="46" t="s">
+      <c r="AT2" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="AU2" s="46" t="s">
+      <c r="AU2" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="AV2" s="46" t="s">
+      <c r="AV2" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="AW2" s="46" t="s">
+      <c r="AW2" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="AX2" s="46" t="s">
+      <c r="AX2" s="34" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="29"/>
-      <c r="K3" s="30"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="30"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="30"/>
+      <c r="AG3" s="29"/>
+      <c r="AR3" s="29"/>
     </row>
     <row r="4" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="29"/>
-      <c r="K4" s="30"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="30"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="30"/>
+      <c r="AG4" s="29"/>
+      <c r="AR4" s="29"/>
     </row>
     <row r="5" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="30"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="30"/>
+      <c r="AG5" s="29"/>
+      <c r="AR5" s="29"/>
     </row>
     <row r="6" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="30"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="30"/>
+      <c r="AG6" s="29"/>
+      <c r="AR6" s="29"/>
     </row>
     <row r="7" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="30"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="30"/>
+      <c r="AG7" s="29"/>
+      <c r="AR7" s="29"/>
     </row>
     <row r="8" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="30"/>
-      <c r="AR8" s="31"/>
-      <c r="AS8" s="30"/>
+      <c r="AG8" s="29"/>
+      <c r="AR8" s="29"/>
     </row>
     <row r="9" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="30"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="30"/>
+      <c r="AG9" s="29"/>
+      <c r="AR9" s="29"/>
     </row>
     <row r="10" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="30"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="30"/>
+      <c r="AG10" s="29"/>
+      <c r="AR10" s="29"/>
     </row>
     <row r="11" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="30"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="30"/>
+      <c r="AG11" s="29"/>
+      <c r="AR11" s="29"/>
     </row>
     <row r="12" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="30"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="30"/>
+      <c r="AG12" s="29"/>
+      <c r="AR12" s="29"/>
     </row>
     <row r="13" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="30"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="30"/>
+      <c r="AG13" s="29"/>
+      <c r="AR13" s="29"/>
     </row>
     <row r="14" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="30"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="30"/>
+      <c r="AG14" s="29"/>
+      <c r="AR14" s="29"/>
     </row>
     <row r="15" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="30"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="30"/>
+      <c r="AG15" s="29"/>
+      <c r="AR15" s="29"/>
     </row>
     <row r="16" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="30"/>
-      <c r="AR16" s="31"/>
-      <c r="AS16" s="30"/>
-    </row>
-    <row r="17" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="30"/>
-      <c r="AR17" s="31"/>
-      <c r="AS17" s="30"/>
-    </row>
-    <row r="18" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="30"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="30"/>
-    </row>
-    <row r="19" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="30"/>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="30"/>
-    </row>
-    <row r="20" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="30"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="30"/>
-    </row>
-    <row r="21" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="30"/>
-      <c r="AR21" s="31"/>
-      <c r="AS21" s="30"/>
-    </row>
-    <row r="22" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="30"/>
-      <c r="AR22" s="31"/>
-      <c r="AS22" s="30"/>
-    </row>
-    <row r="23" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="30"/>
-      <c r="AR23" s="31"/>
-      <c r="AS23" s="30"/>
-    </row>
-    <row r="24" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="30"/>
-      <c r="AR24" s="31"/>
-      <c r="AS24" s="30"/>
-    </row>
-    <row r="25" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="30"/>
-      <c r="AR25" s="31"/>
-      <c r="AS25" s="30"/>
-    </row>
-    <row r="26" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="30"/>
-      <c r="AR26" s="31"/>
-      <c r="AS26" s="30"/>
-    </row>
-    <row r="27" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="30"/>
-      <c r="AR27" s="31"/>
-      <c r="AS27" s="30"/>
-    </row>
-    <row r="28" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="30"/>
-      <c r="AR28" s="31"/>
-      <c r="AS28" s="30"/>
-    </row>
-    <row r="29" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="30"/>
-      <c r="AR29" s="31"/>
-      <c r="AS29" s="30"/>
-    </row>
-    <row r="30" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="30"/>
-      <c r="AR30" s="31"/>
-      <c r="AS30" s="30"/>
-    </row>
-    <row r="31" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="30"/>
-      <c r="AR31" s="31"/>
-      <c r="AS31" s="30"/>
-    </row>
-    <row r="32" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="29"/>
-      <c r="K32" s="30"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="30"/>
-      <c r="AR32" s="31"/>
-      <c r="AS32" s="30"/>
-    </row>
-    <row r="33" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="AG33" s="31"/>
-      <c r="AH33" s="30"/>
-      <c r="AR33" s="31"/>
-      <c r="AS33" s="30"/>
-    </row>
-    <row r="34" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="30"/>
-      <c r="AR34" s="31"/>
-      <c r="AS34" s="30"/>
-    </row>
-    <row r="35" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="AG35" s="31"/>
-      <c r="AH35" s="30"/>
-      <c r="AR35" s="31"/>
-      <c r="AS35" s="30"/>
-    </row>
-    <row r="36" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="AG36" s="31"/>
-      <c r="AH36" s="30"/>
-      <c r="AR36" s="31"/>
-      <c r="AS36" s="30"/>
-    </row>
-    <row r="37" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="30"/>
-      <c r="AR37" s="31"/>
-      <c r="AS37" s="30"/>
-    </row>
-    <row r="38" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="29"/>
-      <c r="K38" s="30"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="30"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="30"/>
-    </row>
-    <row r="39" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="29"/>
-      <c r="K39" s="30"/>
-      <c r="AG39" s="31"/>
-      <c r="AH39" s="30"/>
-      <c r="AR39" s="31"/>
-      <c r="AS39" s="30"/>
-    </row>
-    <row r="40" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="29"/>
-      <c r="K40" s="30"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="30"/>
-      <c r="AR40" s="31"/>
-      <c r="AS40" s="30"/>
-    </row>
-    <row r="41" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="29"/>
-      <c r="K41" s="30"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="30"/>
-      <c r="AR41" s="31"/>
-      <c r="AS41" s="30"/>
-    </row>
-    <row r="42" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="29"/>
-      <c r="K42" s="30"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="30"/>
-      <c r="AR42" s="31"/>
-      <c r="AS42" s="30"/>
-    </row>
-    <row r="43" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K43" s="30"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="30"/>
-      <c r="AR43" s="31"/>
-      <c r="AS43" s="30"/>
-    </row>
-    <row r="44" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K44" s="30"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="30"/>
-      <c r="AR44" s="31"/>
-      <c r="AS44" s="30"/>
-    </row>
-    <row r="45" spans="7:45" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K45" s="30"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="30"/>
-      <c r="AR45" s="31"/>
-      <c r="AS45" s="30"/>
+      <c r="AG16" s="29"/>
+      <c r="AR16" s="29"/>
+    </row>
+    <row r="17" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG17" s="29"/>
+      <c r="AR17" s="29"/>
+    </row>
+    <row r="18" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG18" s="29"/>
+      <c r="AR18" s="29"/>
+    </row>
+    <row r="19" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG19" s="29"/>
+      <c r="AR19" s="29"/>
+    </row>
+    <row r="20" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG20" s="29"/>
+      <c r="AR20" s="29"/>
+    </row>
+    <row r="21" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG21" s="29"/>
+      <c r="AR21" s="29"/>
+    </row>
+    <row r="22" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG22" s="29"/>
+      <c r="AR22" s="29"/>
+    </row>
+    <row r="23" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG23" s="29"/>
+      <c r="AR23" s="29"/>
+    </row>
+    <row r="24" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG24" s="29"/>
+      <c r="AR24" s="29"/>
+    </row>
+    <row r="25" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG25" s="29"/>
+      <c r="AR25" s="29"/>
+    </row>
+    <row r="26" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG26" s="29"/>
+      <c r="AR26" s="29"/>
+    </row>
+    <row r="27" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG27" s="29"/>
+      <c r="AR27" s="29"/>
+    </row>
+    <row r="28" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG28" s="29"/>
+      <c r="AR28" s="29"/>
+    </row>
+    <row r="29" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG29" s="29"/>
+      <c r="AR29" s="29"/>
+    </row>
+    <row r="30" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG30" s="29"/>
+      <c r="AR30" s="29"/>
+    </row>
+    <row r="31" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG31" s="29"/>
+      <c r="AR31" s="29"/>
+    </row>
+    <row r="32" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG32" s="29"/>
+      <c r="AR32" s="29"/>
+    </row>
+    <row r="33" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG33" s="29"/>
+      <c r="AR33" s="29"/>
+    </row>
+    <row r="34" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG34" s="29"/>
+      <c r="AR34" s="29"/>
+    </row>
+    <row r="35" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG35" s="29"/>
+      <c r="AR35" s="29"/>
+    </row>
+    <row r="36" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG36" s="29"/>
+      <c r="AR36" s="29"/>
+    </row>
+    <row r="37" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG37" s="29"/>
+      <c r="AR37" s="29"/>
+    </row>
+    <row r="38" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG38" s="29"/>
+      <c r="AR38" s="29"/>
+    </row>
+    <row r="39" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG39" s="29"/>
+      <c r="AR39" s="29"/>
+    </row>
+    <row r="40" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG40" s="29"/>
+      <c r="AR40" s="29"/>
+    </row>
+    <row r="41" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG41" s="29"/>
+      <c r="AR41" s="29"/>
+    </row>
+    <row r="42" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG42" s="29"/>
+      <c r="AR42" s="29"/>
+    </row>
+    <row r="43" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG43" s="29"/>
+      <c r="AR43" s="29"/>
+    </row>
+    <row r="44" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG44" s="29"/>
+      <c r="AR44" s="29"/>
+    </row>
+    <row r="45" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG45" s="29"/>
+      <c r="AR45" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X7zW4JYrcdpAy7TN45o220MAFZV+CcZVTl5TWLq2/kH1sQ/LQfO8w7BAd41aJo95J/Q72/cAewmpkjf98xW4TA==" saltValue="+km4pe2NPj216RQDX2RkGg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zOvxVl4DIxCdeVOZRivl+k+6eZKcjOjj1Z3r4lcqCPwndzhPL/LcS3ly7FdmuTb30949LOUhuZEytcacwM2hEA==" saltValue="DOdEViT6nyeVjg4Vwmapbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Common/Style/Resource/Template/Import_Interessent.xlsx
+++ b/Common/Style/Resource/Template/Import_Interessent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kundwzwickau.de\kuw\abteilung_software\Projekte\Schulsoftware\30 Projektrealisierung\30.2 Einstieg und Schulung\!Datenimport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D38F22-A3B0-4A79-8DFD-EAB040BACB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDEAA72-D559-4B2A-8304-35E1DB7E4B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kl. 1" sheetId="2" r:id="rId1"/>
@@ -1619,123 +1619,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2067,24 +2036,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="23" customWidth="1"/>
-    <col min="5" max="6" width="21.140625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="20" customWidth="1"/>
-    <col min="8" max="9" width="15.140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="24" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="9" style="24" customWidth="1"/>
-    <col min="22" max="23" width="12.7109375" style="24" customWidth="1"/>
-    <col min="24" max="24" width="10" style="24" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" style="24" customWidth="1"/>
-    <col min="26" max="28" width="20.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="21.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="13" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="9" style="5" customWidth="1"/>
+    <col min="22" max="23" width="12.7109375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="10" style="5" customWidth="1"/>
+    <col min="25" max="28" width="20.7109375" style="5" customWidth="1"/>
     <col min="29" max="29" width="57.7109375" style="5" customWidth="1"/>
     <col min="30" max="30" width="27.42578125" style="5" customWidth="1"/>
     <col min="31" max="34" width="9.140625" style="5"/>
@@ -2186,23 +2154,23 @@
         <v>30</v>
       </c>
       <c r="L2" s="8"/>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="19">
         <v>1</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V2" s="8" t="s">
@@ -2260,23 +2228,23 @@
         <v>40</v>
       </c>
       <c r="L3" s="8"/>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="19">
         <v>5</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="19">
         <v>1</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27" t="s">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V3" s="8" t="s">
@@ -2337,23 +2305,23 @@
       <c r="L4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="19">
         <v>1</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26" t="s">
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V4" s="8" t="s">
@@ -2413,23 +2381,23 @@
       <c r="L5" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="19">
         <v>3</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="19">
         <v>1</v>
       </c>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27" t="s">
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V5" s="8" t="s">
@@ -2495,23 +2463,23 @@
         <v>64</v>
       </c>
       <c r="L6" s="8"/>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="19">
         <v>1</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26" t="s">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V6" s="8" t="s">
@@ -2579,23 +2547,23 @@
       <c r="L7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="19">
         <v>1</v>
       </c>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V7" s="8" t="s">
@@ -2655,23 +2623,23 @@
       <c r="L8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="19">
         <v>1</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="19">
         <v>1</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26" t="s">
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V8" s="8" t="s">
@@ -2731,23 +2699,23 @@
       <c r="L9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="19">
         <v>7</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="19">
         <v>1</v>
       </c>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27" t="s">
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V9" s="8" t="s">
@@ -2805,23 +2773,23 @@
         <v>92</v>
       </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="19">
         <v>2</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="19">
         <v>1</v>
       </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26" t="s">
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V10" s="8" t="s">
@@ -2881,23 +2849,23 @@
       <c r="L11" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="19">
         <v>9</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="19">
         <v>1</v>
       </c>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27" t="s">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V11" s="8" t="s">
@@ -2957,23 +2925,23 @@
       <c r="L12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="19">
         <v>8</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="19">
         <v>1</v>
       </c>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26" t="s">
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V12" s="8" t="s">
@@ -3027,52 +2995,52 @@
       <c r="I13" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>8340</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="26" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="19">
         <v>12</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="19">
         <v>1</v>
       </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27" t="s">
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="V13" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="W13" s="10"/>
-      <c r="X13" s="12">
+      <c r="W13" s="7"/>
+      <c r="X13" s="2">
         <v>43313</v>
       </c>
-      <c r="Y13" s="10" t="s">
+      <c r="Y13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="Z13" s="10" t="s">
+      <c r="Z13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA13" s="13" t="s">
+      <c r="AA13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AB13" s="10" t="s">
+      <c r="AB13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AC13" s="10" t="s">
+      <c r="AC13" s="7" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3111,23 +3079,23 @@
         <v>64</v>
       </c>
       <c r="L14" s="8"/>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="N14" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="19">
         <v>1</v>
       </c>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26" t="s">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V14" s="8" t="s">
@@ -3187,23 +3155,23 @@
       <c r="L15" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="19">
         <v>2</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="O15" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="19">
         <v>1</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27" t="s">
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V15" s="8" t="s">
@@ -3261,23 +3229,23 @@
         <v>92</v>
       </c>
       <c r="L16" s="7"/>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="19">
         <v>1</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="O16" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="19">
         <v>1</v>
       </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26" t="s">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V16" s="8" t="s">
@@ -3335,23 +3303,23 @@
         <v>92</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="19">
         <v>13</v>
       </c>
-      <c r="O17" s="27" t="s">
+      <c r="O17" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="19">
         <v>1</v>
       </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27" t="s">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V17" s="8" t="s">
@@ -3414,23 +3382,23 @@
         <v>92</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="19">
         <v>56</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="19">
         <v>1</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26" t="s">
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V18" s="8" t="s">
@@ -3495,23 +3463,23 @@
       <c r="L19" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="19">
         <v>1</v>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27" t="s">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V19" s="8" t="s">
@@ -3576,23 +3544,23 @@
       <c r="L20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="N20" s="26" t="s">
+      <c r="N20" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="O20" s="26" t="s">
+      <c r="O20" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="19">
         <v>1</v>
       </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26" t="s">
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V20" s="8" t="s">
@@ -3658,23 +3626,23 @@
       <c r="L21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="19">
         <v>3</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="O21" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P21" s="27">
+      <c r="P21" s="19">
         <v>1</v>
       </c>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27" t="s">
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V21" s="8" t="s">
@@ -3742,23 +3710,23 @@
       <c r="L22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="19">
         <v>69</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="O22" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="19">
         <v>1</v>
       </c>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26" t="s">
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V22" s="8" t="s">
@@ -3821,23 +3789,23 @@
         <v>138</v>
       </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="N23" s="26" t="s">
+      <c r="N23" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="O23" s="27" t="s">
+      <c r="O23" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P23" s="27">
+      <c r="P23" s="19">
         <v>1</v>
       </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27" t="s">
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V23" s="8" t="s">
@@ -3900,23 +3868,23 @@
         <v>72</v>
       </c>
       <c r="L24" s="8"/>
-      <c r="M24" s="26" t="s">
+      <c r="M24" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N24" s="19">
         <v>16</v>
       </c>
-      <c r="O24" s="26" t="s">
+      <c r="O24" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="19">
         <v>1</v>
       </c>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26" t="s">
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V24" s="8" t="s">
@@ -3981,23 +3949,23 @@
       <c r="L25" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M25" s="26" t="s">
+      <c r="M25" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="19">
         <v>26</v>
       </c>
-      <c r="O25" s="27" t="s">
+      <c r="O25" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="19">
         <v>1</v>
       </c>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27" t="s">
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V25" s="8" t="s">
@@ -4060,23 +4028,23 @@
         <v>92</v>
       </c>
       <c r="L26" s="8"/>
-      <c r="M26" s="26" t="s">
+      <c r="M26" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="19">
         <v>9</v>
       </c>
-      <c r="O26" s="26" t="s">
+      <c r="O26" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="19">
         <v>1</v>
       </c>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26" t="s">
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V26" s="8" t="s">
@@ -4092,7 +4060,7 @@
       <c r="Z26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AA26" s="14" t="s">
+      <c r="AA26" s="12" t="s">
         <v>172</v>
       </c>
       <c r="AB26" s="8" t="s">
@@ -4141,23 +4109,23 @@
       <c r="L27" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="N27" s="27">
+      <c r="N27" s="19">
         <v>6</v>
       </c>
-      <c r="O27" s="27" t="s">
+      <c r="O27" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P27" s="27">
+      <c r="P27" s="19">
         <v>1</v>
       </c>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27" t="s">
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V27" s="8" t="s">
@@ -4173,7 +4141,7 @@
       <c r="Z27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AA27" s="14" t="s">
+      <c r="AA27" s="12" t="s">
         <v>177</v>
       </c>
       <c r="AB27" s="8" t="s">
@@ -4222,23 +4190,23 @@
       <c r="L28" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="M28" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="19">
         <v>43</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="O28" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P28" s="26">
+      <c r="P28" s="19">
         <v>1</v>
       </c>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26" t="s">
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V28" s="8" t="s">
@@ -4252,7 +4220,7 @@
         <v>41</v>
       </c>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="14" t="s">
+      <c r="AA28" s="12" t="s">
         <v>182</v>
       </c>
       <c r="AB28" s="8" t="s">
@@ -4302,23 +4270,23 @@
         <v>30</v>
       </c>
       <c r="L29" s="8"/>
-      <c r="M29" s="26" t="s">
+      <c r="M29" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="19">
         <v>2</v>
       </c>
-      <c r="O29" s="27" t="s">
+      <c r="O29" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P29" s="27">
+      <c r="P29" s="19">
         <v>1</v>
       </c>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27" t="s">
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V29" s="8" t="s">
@@ -4334,7 +4302,7 @@
       <c r="Z29" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="AA29" s="14" t="s">
+      <c r="AA29" s="12" t="s">
         <v>188</v>
       </c>
       <c r="AB29" s="8" t="s">
@@ -4381,23 +4349,23 @@
         <v>30</v>
       </c>
       <c r="L30" s="8"/>
-      <c r="M30" s="26" t="s">
+      <c r="M30" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N30" s="19">
         <v>3</v>
       </c>
-      <c r="O30" s="26" t="s">
+      <c r="O30" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P30" s="26">
+      <c r="P30" s="19">
         <v>1</v>
       </c>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26" t="s">
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V30" s="8" t="s">
@@ -4413,7 +4381,7 @@
       <c r="Z30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AA30" s="14" t="s">
+      <c r="AA30" s="12" t="s">
         <v>192</v>
       </c>
       <c r="AB30" s="8" t="s">
@@ -4463,23 +4431,23 @@
         <v>64</v>
       </c>
       <c r="L31" s="8"/>
-      <c r="M31" s="26" t="s">
+      <c r="M31" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="N31" s="26" t="s">
+      <c r="N31" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="O31" s="27" t="s">
+      <c r="O31" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="19">
         <v>1</v>
       </c>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27" t="s">
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V31" s="8" t="s">
@@ -4495,7 +4463,7 @@
       <c r="Z31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AA31" s="14" t="s">
+      <c r="AA31" s="12" t="s">
         <v>196</v>
       </c>
       <c r="AB31" s="8"/>
@@ -4543,23 +4511,23 @@
         <v>92</v>
       </c>
       <c r="L32" s="8"/>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N32" s="19">
         <v>17</v>
       </c>
-      <c r="O32" s="26" t="s">
+      <c r="O32" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P32" s="19">
         <v>1</v>
       </c>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26" t="s">
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V32" s="8" t="s">
@@ -4575,7 +4543,7 @@
       <c r="Z32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AA32" s="14" t="s">
+      <c r="AA32" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AB32" s="8" t="s">
@@ -4622,23 +4590,23 @@
         <v>30</v>
       </c>
       <c r="L33" s="8"/>
-      <c r="M33" s="26" t="s">
+      <c r="M33" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N33" s="19">
         <v>25</v>
       </c>
-      <c r="O33" s="27" t="s">
+      <c r="O33" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P33" s="27">
+      <c r="P33" s="19">
         <v>1</v>
       </c>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27" t="s">
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V33" s="8" t="s">
@@ -4654,7 +4622,7 @@
       <c r="Z33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AA33" s="14" t="s">
+      <c r="AA33" s="12" t="s">
         <v>203</v>
       </c>
       <c r="AB33" s="8" t="s">
@@ -4704,23 +4672,23 @@
       <c r="L34" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="M34" s="26" t="s">
+      <c r="M34" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="N34" s="27">
+      <c r="N34" s="19">
         <v>8</v>
       </c>
-      <c r="O34" s="26" t="s">
+      <c r="O34" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="19">
         <v>1</v>
       </c>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26" t="s">
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V34" s="8" t="s">
@@ -4786,23 +4754,23 @@
       <c r="L35" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="M35" s="26" t="s">
+      <c r="M35" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="26" t="s">
+      <c r="N35" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="O35" s="27" t="s">
+      <c r="O35" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P35" s="27">
+      <c r="P35" s="19">
         <v>1</v>
       </c>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27" t="s">
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V35" s="8" t="s">
@@ -4866,23 +4834,23 @@
         <v>30</v>
       </c>
       <c r="L36" s="8"/>
-      <c r="M36" s="26" t="s">
+      <c r="M36" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="N36" s="27">
+      <c r="N36" s="19">
         <v>3</v>
       </c>
-      <c r="O36" s="26" t="s">
+      <c r="O36" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="19">
         <v>1</v>
       </c>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26" t="s">
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V36" s="8" t="s">
@@ -4948,23 +4916,23 @@
       <c r="L37" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="M37" s="26" t="s">
+      <c r="M37" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="19">
         <v>11</v>
       </c>
-      <c r="O37" s="27" t="s">
+      <c r="O37" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P37" s="27">
+      <c r="P37" s="19">
         <v>1</v>
       </c>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27" t="s">
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V37" s="8" t="s">
@@ -5021,7 +4989,7 @@
       <c r="I38" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="J38" s="10" t="s">
         <v>224</v>
       </c>
       <c r="K38" s="8" t="s">
@@ -5030,23 +4998,23 @@
       <c r="L38" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="M38" s="26" t="s">
+      <c r="M38" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="N38" s="27">
+      <c r="N38" s="19">
         <v>58</v>
       </c>
-      <c r="O38" s="26" t="s">
+      <c r="O38" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P38" s="26">
+      <c r="P38" s="19">
         <v>1</v>
       </c>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26" t="s">
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V38" s="8"/>
@@ -5108,23 +5076,23 @@
         <v>264</v>
       </c>
       <c r="L39" s="8"/>
-      <c r="M39" s="26" t="s">
+      <c r="M39" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="N39" s="27">
+      <c r="N39" s="19">
         <v>5</v>
       </c>
-      <c r="O39" s="27" t="s">
+      <c r="O39" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P39" s="27">
+      <c r="P39" s="19">
         <v>1</v>
       </c>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27" t="s">
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V39" s="8" t="s">
@@ -5190,23 +5158,23 @@
       <c r="L40" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="M40" s="26" t="s">
+      <c r="M40" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="N40" s="27">
+      <c r="N40" s="19">
         <v>78</v>
       </c>
-      <c r="O40" s="26" t="s">
+      <c r="O40" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P40" s="26">
+      <c r="P40" s="19">
         <v>1</v>
       </c>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26" t="s">
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V40" s="8" t="s">
@@ -5263,7 +5231,7 @@
       <c r="I41" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="10">
         <v>8352</v>
       </c>
       <c r="K41" s="8" t="s">
@@ -5272,23 +5240,23 @@
       <c r="L41" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="M41" s="26" t="s">
+      <c r="M41" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="N41" s="27">
+      <c r="N41" s="19">
         <v>4</v>
       </c>
-      <c r="O41" s="27" t="s">
+      <c r="O41" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="P41" s="27">
+      <c r="P41" s="19">
         <v>1</v>
       </c>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27" t="s">
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19" t="s">
         <v>349</v>
       </c>
       <c r="V41" s="8" t="s">
@@ -5320,31 +5288,6 @@
       <c r="AH41" s="6"/>
     </row>
     <row r="42" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
@@ -5353,31 +5296,7 @@
       <c r="AH42" s="6"/>
     </row>
     <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
+      <c r="G43" s="15"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
@@ -5386,37 +5305,37 @@
       <c r="AH43" s="6"/>
     </row>
     <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
+      <c r="F44" s="16"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
@@ -5425,31 +5344,6 @@
       <c r="AH44" s="6"/>
     </row>
     <row r="47" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
@@ -5468,526 +5362,354 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AX45"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="29" customWidth="1"/>
-    <col min="11" max="11" width="6" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="11.5703125" style="29"/>
-    <col min="33" max="33" width="20.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="34" max="43" width="11.5703125" style="29"/>
-    <col min="44" max="44" width="20.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="11.5703125" style="29"/>
+    <col min="1" max="1" width="3.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="6" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="11.5703125" style="20"/>
+    <col min="33" max="33" width="20.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="34" max="43" width="11.5703125" style="20"/>
+    <col min="44" max="44" width="20.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="11.5703125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25"/>
+      <c r="B1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="O1" s="30">
+      <c r="O1" s="21">
         <v>7</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="S1" s="31">
+      <c r="S1" s="29">
         <v>43831</v>
       </c>
-      <c r="T1" s="31">
+      <c r="T1" s="29">
         <v>43831</v>
       </c>
-      <c r="U1" s="31">
+      <c r="U1" s="29">
         <v>43831</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AB1" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AF1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="AG1" s="31" t="s">
+      <c r="AG1" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AH1" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AI1" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AK1" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="AL1" s="30">
+      <c r="AL1" s="21">
         <v>7</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AM1" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AN1" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AO1" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AP1" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="AQ1" s="30" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="AR1" s="31" t="s">
+      <c r="AR1" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="AS1" s="30" t="s">
+      <c r="AS1" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="AT1" s="30" t="s">
+      <c r="AT1" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="AU1" s="30" t="s">
+      <c r="AU1" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="AV1" s="30" t="s">
+      <c r="AV1" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="AW1" s="30">
+      <c r="AW1" s="21">
         <v>7</v>
       </c>
-      <c r="AX1" s="30" t="s">
+      <c r="AX1" s="21" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="AB2" s="32" t="s">
+      <c r="AB2" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AD2" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AE2" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AF2" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="AG2" s="38" t="s">
+      <c r="AG2" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AH2" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AJ2" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AK2" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AL2" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="AM2" s="33" t="s">
+      <c r="AM2" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="AN2" s="34" t="s">
+      <c r="AN2" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="AO2" s="34" t="s">
+      <c r="AO2" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="AP2" s="34" t="s">
+      <c r="AP2" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="AQ2" s="34" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="AR2" s="39" t="s">
+      <c r="AR2" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="AS2" s="34" t="s">
+      <c r="AS2" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="AT2" s="34" t="s">
+      <c r="AT2" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="AU2" s="34" t="s">
+      <c r="AU2" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="AV2" s="34" t="s">
+      <c r="AV2" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="AW2" s="34" t="s">
+      <c r="AW2" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="AX2" s="34" t="s">
+      <c r="AX2" s="24" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="3" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG3" s="29"/>
-      <c r="AR3" s="29"/>
-    </row>
-    <row r="4" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG4" s="29"/>
-      <c r="AR4" s="29"/>
-    </row>
-    <row r="5" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG5" s="29"/>
-      <c r="AR5" s="29"/>
-    </row>
-    <row r="6" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG6" s="29"/>
-      <c r="AR6" s="29"/>
-    </row>
-    <row r="7" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG7" s="29"/>
-      <c r="AR7" s="29"/>
-    </row>
-    <row r="8" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG8" s="29"/>
-      <c r="AR8" s="29"/>
-    </row>
-    <row r="9" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG9" s="29"/>
-      <c r="AR9" s="29"/>
-    </row>
-    <row r="10" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG10" s="29"/>
-      <c r="AR10" s="29"/>
-    </row>
-    <row r="11" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG11" s="29"/>
-      <c r="AR11" s="29"/>
-    </row>
-    <row r="12" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG12" s="29"/>
-      <c r="AR12" s="29"/>
-    </row>
-    <row r="13" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG13" s="29"/>
-      <c r="AR13" s="29"/>
-    </row>
-    <row r="14" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG14" s="29"/>
-      <c r="AR14" s="29"/>
-    </row>
-    <row r="15" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG15" s="29"/>
-      <c r="AR15" s="29"/>
-    </row>
-    <row r="16" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG16" s="29"/>
-      <c r="AR16" s="29"/>
-    </row>
-    <row r="17" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG17" s="29"/>
-      <c r="AR17" s="29"/>
-    </row>
-    <row r="18" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG18" s="29"/>
-      <c r="AR18" s="29"/>
-    </row>
-    <row r="19" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG19" s="29"/>
-      <c r="AR19" s="29"/>
-    </row>
-    <row r="20" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG20" s="29"/>
-      <c r="AR20" s="29"/>
-    </row>
-    <row r="21" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG21" s="29"/>
-      <c r="AR21" s="29"/>
-    </row>
-    <row r="22" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG22" s="29"/>
-      <c r="AR22" s="29"/>
-    </row>
-    <row r="23" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG23" s="29"/>
-      <c r="AR23" s="29"/>
-    </row>
-    <row r="24" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG24" s="29"/>
-      <c r="AR24" s="29"/>
-    </row>
-    <row r="25" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG25" s="29"/>
-      <c r="AR25" s="29"/>
-    </row>
-    <row r="26" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG26" s="29"/>
-      <c r="AR26" s="29"/>
-    </row>
-    <row r="27" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG27" s="29"/>
-      <c r="AR27" s="29"/>
-    </row>
-    <row r="28" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG28" s="29"/>
-      <c r="AR28" s="29"/>
-    </row>
-    <row r="29" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG29" s="29"/>
-      <c r="AR29" s="29"/>
-    </row>
-    <row r="30" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG30" s="29"/>
-      <c r="AR30" s="29"/>
-    </row>
-    <row r="31" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG31" s="29"/>
-      <c r="AR31" s="29"/>
-    </row>
-    <row r="32" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG32" s="29"/>
-      <c r="AR32" s="29"/>
-    </row>
-    <row r="33" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG33" s="29"/>
-      <c r="AR33" s="29"/>
-    </row>
-    <row r="34" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG34" s="29"/>
-      <c r="AR34" s="29"/>
-    </row>
-    <row r="35" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG35" s="29"/>
-      <c r="AR35" s="29"/>
-    </row>
-    <row r="36" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG36" s="29"/>
-      <c r="AR36" s="29"/>
-    </row>
-    <row r="37" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG37" s="29"/>
-      <c r="AR37" s="29"/>
-    </row>
-    <row r="38" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG38" s="29"/>
-      <c r="AR38" s="29"/>
-    </row>
-    <row r="39" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG39" s="29"/>
-      <c r="AR39" s="29"/>
-    </row>
-    <row r="40" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG40" s="29"/>
-      <c r="AR40" s="29"/>
-    </row>
-    <row r="41" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG41" s="29"/>
-      <c r="AR41" s="29"/>
-    </row>
-    <row r="42" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG42" s="29"/>
-      <c r="AR42" s="29"/>
-    </row>
-    <row r="43" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG43" s="29"/>
-      <c r="AR43" s="29"/>
-    </row>
-    <row r="44" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG44" s="29"/>
-      <c r="AR44" s="29"/>
-    </row>
-    <row r="45" spans="33:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AG45" s="29"/>
-      <c r="AR45" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zOvxVl4DIxCdeVOZRivl+k+6eZKcjOjj1Z3r4lcqCPwndzhPL/LcS3ly7FdmuTb30949LOUhuZEytcacwM2hEA==" saltValue="DOdEViT6nyeVjg4Vwmapbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uxHB3qgN6O0kKuB8r090RUYnIKMtNyW7tRHxem1Cj3x2V/QEfJueOqT3jcmUCkezzUHM0rZYVb2jfuTNTnV6qw==" saltValue="T7IWTiXM755riRGf5wG/lg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Common/Style/Resource/Template/Import_Interessent.xlsx
+++ b/Common/Style/Resource/Template/Import_Interessent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDEAA72-D559-4B2A-8304-35E1DB7E4B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8E4494-C0E1-44A2-89FA-9265384E4F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Kl. 1" sheetId="2" r:id="rId1"/>
     <sheet name="Interessent" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Interessent!$A$2:$AX$2</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1619,7 +1622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1679,22 +1682,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1703,7 +1690,26 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5368,18 +5374,18 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" style="20" customWidth="1"/>
@@ -5391,9 +5397,9 @@
     <col min="16" max="16" width="12" style="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
@@ -5408,308 +5414,309 @@
     <col min="45" max="16384" width="11.5703125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:50" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="O1" s="21">
+      <c r="O1" s="25">
         <v>7</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="S1" s="29">
+      <c r="S1" s="26">
         <v>43831</v>
       </c>
-      <c r="T1" s="29">
+      <c r="T1" s="26">
         <v>43831</v>
       </c>
-      <c r="U1" s="29">
+      <c r="U1" s="26">
         <v>43831</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AH1" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="AL1" s="21">
+      <c r="AL1" s="25">
         <v>7</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AM1" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="AN1" s="21" t="s">
+      <c r="AN1" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="AO1" s="21" t="s">
+      <c r="AO1" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AP1" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="AQ1" s="21" t="s">
+      <c r="AQ1" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="AR1" s="21" t="s">
+      <c r="AR1" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="AS1" s="21" t="s">
+      <c r="AS1" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AT1" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="AU1" s="21" t="s">
+      <c r="AU1" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="AV1" s="21" t="s">
+      <c r="AV1" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="AW1" s="21">
+      <c r="AW1" s="25">
         <v>7</v>
       </c>
-      <c r="AX1" s="21" t="s">
+      <c r="AX1" s="25" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="Z2" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="AC2" s="23" t="s">
+      <c r="AC2" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="AD2" s="23" t="s">
+      <c r="AD2" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AE2" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF2" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="AF2" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AG2" s="23" t="s">
+      <c r="AG2" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="AH2" s="23" t="s">
+      <c r="AH2" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="AI2" s="23" t="s">
+      <c r="AI2" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="AJ2" s="23" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="AK2" s="23" t="s">
+      <c r="AK2" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="AL2" s="23" t="s">
+      <c r="AL2" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="AM2" s="23" t="s">
+      <c r="AM2" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="AN2" s="24" t="s">
+      <c r="AN2" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="AO2" s="24" t="s">
+      <c r="AO2" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="AP2" s="24" t="s">
+      <c r="AP2" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="AQ2" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="AQ2" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AR2" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="AS2" s="24" t="s">
+      <c r="AS2" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="AT2" s="24" t="s">
+      <c r="AT2" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AU2" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="AV2" s="24" t="s">
+      <c r="AV2" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="AW2" s="24" t="s">
+      <c r="AW2" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="AX2" s="24" t="s">
+      <c r="AX2" s="30" t="s">
         <v>401</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uxHB3qgN6O0kKuB8r090RUYnIKMtNyW7tRHxem1Cj3x2V/QEfJueOqT3jcmUCkezzUHM0rZYVb2jfuTNTnV6qw==" saltValue="T7IWTiXM755riRGf5wG/lg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AO6BhZebrB7pRWRGfiAvVt5mCaD9qOuuat0S+cQeaTax0v55BGfLXrhSGbTg4cH5Sc5Sy9d6AC9fPf7mImS0wg==" saltValue="Vasutm3rels4KXKrP6Y/cA==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" autoFilter="0"/>
+  <autoFilter ref="A2:AX2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Common/Style/Resource/Template/Import_Interessent.xlsx
+++ b/Common/Style/Resource/Template/Import_Interessent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmiezik\Desktop\Schele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8E4494-C0E1-44A2-89FA-9265384E4F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BA7DAD-DE50-49EB-843F-2EFED73C50C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kl. 1" sheetId="2" r:id="rId1"/>
@@ -5715,7 +5715,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AO6BhZebrB7pRWRGfiAvVt5mCaD9qOuuat0S+cQeaTax0v55BGfLXrhSGbTg4cH5Sc5Sy9d6AC9fPf7mImS0wg==" saltValue="Vasutm3rels4KXKrP6Y/cA==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0MRvk69Fc+TPRySQgWXv3uWmn8ot1EaVGOL4iW+oW0z/k9koGk8lFCCsmvj4+JRpmb7stcshTg/RX9w1lx1gjA==" saltValue="+AUFqvzqG9HbYCcG4gHwLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:AX2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
